--- a/model_templates/ark.OlinkFileAnnotationTemplate.xlsx
+++ b/model_templates/ark.OlinkFileAnnotationTemplate.xlsx
@@ -5042,7 +5042,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Component</t>
   </si>
@@ -5095,6 +5095,9 @@
     <t>csv</t>
   </si>
   <si>
+    <t>czi</t>
+  </si>
+  <si>
     <t>docx</t>
   </si>
   <si>
@@ -5125,6 +5128,9 @@
     <t>info</t>
   </si>
   <si>
+    <t>mcd</t>
+  </si>
+  <si>
     <t>mtx</t>
   </si>
   <si>
@@ -5138,6 +5144,9 @@
   </si>
   <si>
     <t>rec</t>
+  </si>
+  <si>
+    <t>svs</t>
   </si>
   <si>
     <t>tbi</t>
@@ -32490,14 +32499,14 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="B2:B1000">
-      <formula1>Sheet2!$B$2:$B$29</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
       <formula1>Sheet2!$E$2:$E$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
       <formula1>Sheet2!$C$2:$C$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="B2:B1000">
+      <formula1>Sheet2!$B$2:$B$32</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -32690,6 +32699,21 @@
         <v>39</v>
       </c>
     </row>
+    <row r="30">
+      <c r="B30" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
